--- a/21130596-NguyenThanhTu/21130596 - NguyenThanhTu.xlsx
+++ b/21130596-NguyenThanhTu/21130596 - NguyenThanhTu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntt15\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntt15\Downloads\AUTOTEST\group\21130596-NguyenThanhTu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E26DDA-1340-4B9D-95C6-7961F03DCAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4DA9EF-32E1-411E-BABC-6A19384EB637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="821" activeTab="2" xr2:uid="{67A9CA4E-B830-48E7-B9B2-CCBC9EF8E739}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="821" activeTab="3" xr2:uid="{67A9CA4E-B830-48E7-B9B2-CCBC9EF8E739}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="158">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -620,13 +620,6 @@
     <t>Director Page Navigation: Verify navigation from director link.</t>
   </si>
   <si>
-    <t>1. Click on the director name (e.g., Christopher Nolan).</t>
-  </si>
-  <si>
-    <t>1. Navigates to /director/christopher-nolan.
-2. Director filmography is displayed.</t>
-  </si>
-  <si>
     <t>TC14-03</t>
   </si>
   <si>
@@ -634,10 +627,6 @@
   </si>
   <si>
     <t>1. Click on actor name (e.g., Leonardo DiCaprio).</t>
-  </si>
-  <si>
-    <t>1. Navigates to /actor/leonardo-dicaprio.
-2. Actor profile and filmography are displayed.</t>
   </si>
   <si>
     <t>TC14-04</t>
@@ -718,6 +707,56 @@
   </si>
   <si>
     <t>&lt;List modules included in this release&gt; ex: Release 1 includes 2 modules: Module3 and Module4</t>
+  </si>
+  <si>
+    <t>1. Click on the Genre (e.g., Action).</t>
+  </si>
+  <si>
+    <t>1. Navigates to /genre/action.
+2. Action movie list is displayed.</t>
+  </si>
+  <si>
+    <t>1. Navigates to /cast/leonardo-dicaprio.
+2. Actor filmography are displayed.</t>
+  </si>
+  <si>
+    <t>15/11/2025</t>
+  </si>
+  <si>
+    <t>15/11/2026</t>
+  </si>
+  <si>
+    <t>15/11/2027</t>
+  </si>
+  <si>
+    <t>15/11/2028</t>
+  </si>
+  <si>
+    <t>15/11/2029</t>
+  </si>
+  <si>
+    <t>15/11/2030</t>
+  </si>
+  <si>
+    <t>14/11/2025</t>
+  </si>
+  <si>
+    <t>14/11/2026</t>
+  </si>
+  <si>
+    <t>14/11/2027</t>
+  </si>
+  <si>
+    <t>14/11/2028</t>
+  </si>
+  <si>
+    <t>14/11/2029</t>
+  </si>
+  <si>
+    <t>14/11/2030</t>
+  </si>
+  <si>
+    <t>15/11/2031</t>
   </si>
 </sst>
 </file>
@@ -2521,10 +2560,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="116" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D9" s="120" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="50"/>
@@ -2534,10 +2573,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D10" s="120" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="50"/>
@@ -2645,7 +2684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B1BDF9-0347-48BD-A798-2229416C2B2C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2881,9 +2920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701BC9DA-44A1-46F3-93A4-894435B951B1}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:H2"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2917,7 +2956,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" s="134"/>
       <c r="D2" s="134"/>
@@ -2953,7 +2992,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="134" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C4" s="134"/>
       <c r="D4" s="134"/>
@@ -3089,7 +3128,9 @@
       <c r="F10" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="117"/>
+      <c r="G10" s="117" t="s">
+        <v>151</v>
+      </c>
       <c r="H10" s="119"/>
       <c r="I10" s="73"/>
     </row>
@@ -3110,7 +3151,9 @@
       <c r="F11" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="117"/>
+      <c r="G11" s="117" t="s">
+        <v>152</v>
+      </c>
       <c r="H11" s="119"/>
       <c r="I11" s="73"/>
     </row>
@@ -3131,7 +3174,9 @@
       <c r="F12" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="117"/>
+      <c r="G12" s="117" t="s">
+        <v>153</v>
+      </c>
       <c r="H12" s="119"/>
       <c r="I12" s="73"/>
     </row>
@@ -3152,7 +3197,9 @@
       <c r="F13" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="117"/>
+      <c r="G13" s="117" t="s">
+        <v>154</v>
+      </c>
       <c r="H13" s="119"/>
       <c r="I13" s="73"/>
     </row>
@@ -3173,7 +3220,9 @@
       <c r="F14" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="117"/>
+      <c r="G14" s="117" t="s">
+        <v>155</v>
+      </c>
       <c r="H14" s="119"/>
       <c r="I14" s="73"/>
     </row>
@@ -3194,7 +3243,9 @@
       <c r="F15" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="117"/>
+      <c r="G15" s="117" t="s">
+        <v>156</v>
+      </c>
       <c r="H15" s="119"/>
       <c r="I15" s="73"/>
     </row>
@@ -3206,6 +3257,7 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
   </mergeCells>
+  <phoneticPr fontId="29" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1 F7:F142" xr:uid="{3C3779D3-2137-43F1-8BC3-BF1168BA2FD2}">
       <formula1>$J$2:$J$6</formula1>
@@ -3227,8 +3279,8 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3262,7 +3314,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C2" s="134"/>
       <c r="D2" s="134"/>
@@ -3298,7 +3350,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="134" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C4" s="134"/>
       <c r="D4" s="134"/>
@@ -3340,11 +3392,11 @@
     <row r="6" spans="1:10" s="62" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="74">
         <f>COUNTIF(F9:F992,"Passed")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="114">
         <f>COUNTIF(F9:F992,"Failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="114">
         <f>F6-E6-D6-B6-A6</f>
@@ -3434,7 +3486,9 @@
       <c r="F10" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="117"/>
+      <c r="G10" s="117" t="s">
+        <v>145</v>
+      </c>
       <c r="H10" s="119"/>
       <c r="I10" s="73"/>
     </row>
@@ -3446,120 +3500,132 @@
         <v>114</v>
       </c>
       <c r="C11" s="117" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D11" s="118" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E11" s="118"/>
       <c r="F11" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="117"/>
+      <c r="G11" s="117" t="s">
+        <v>146</v>
+      </c>
       <c r="H11" s="119"/>
       <c r="I11" s="73"/>
     </row>
     <row r="12" spans="1:10" ht="25.5">
       <c r="A12" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="117" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="117" t="s">
-        <v>119</v>
-      </c>
       <c r="D12" s="118" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="E12" s="118"/>
       <c r="F12" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="117"/>
+      <c r="G12" s="117" t="s">
+        <v>147</v>
+      </c>
       <c r="H12" s="119"/>
       <c r="I12" s="73"/>
     </row>
     <row r="13" spans="1:10" ht="38.25">
       <c r="A13" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="118" t="s">
         <v>121</v>
-      </c>
-      <c r="B13" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="117" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="118" t="s">
-        <v>124</v>
       </c>
       <c r="E13" s="118"/>
       <c r="F13" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="117"/>
+      <c r="G13" s="117" t="s">
+        <v>148</v>
+      </c>
       <c r="H13" s="119"/>
       <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:10" ht="38.25">
       <c r="A14" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="118" t="s">
         <v>125</v>
-      </c>
-      <c r="B14" s="117" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="117" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="118" t="s">
-        <v>128</v>
       </c>
       <c r="E14" s="118"/>
       <c r="F14" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="117"/>
+        <v>79</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>149</v>
+      </c>
       <c r="H14" s="119"/>
       <c r="I14" s="73"/>
     </row>
     <row r="15" spans="1:10" ht="25.5">
       <c r="A15" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="118" t="s">
         <v>129</v>
-      </c>
-      <c r="B15" s="117" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="117" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="118" t="s">
-        <v>132</v>
       </c>
       <c r="E15" s="118"/>
       <c r="F15" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="117"/>
+      <c r="G15" s="117" t="s">
+        <v>150</v>
+      </c>
       <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:10" ht="38.25">
       <c r="A16" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="117" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="118" t="s">
         <v>133</v>
-      </c>
-      <c r="B16" s="117" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="117" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="118" t="s">
-        <v>136</v>
       </c>
       <c r="E16" s="118"/>
       <c r="F16" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="117"/>
+      <c r="G16" s="117" t="s">
+        <v>157</v>
+      </c>
       <c r="H16" s="119"/>
     </row>
   </sheetData>
@@ -3592,7 +3658,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3682,7 +3748,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="138" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="138"/>
       <c r="E6" s="138"/>
@@ -3749,7 +3815,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="91">
-        <f>[1]Module1!B6</f>
+        <f>Module3!B6</f>
         <v>0</v>
       </c>
       <c r="F10" s="91">
@@ -3780,11 +3846,11 @@
       </c>
       <c r="D11" s="91">
         <f>Module4!A6</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="91">
-        <f>[1]Module2!B6</f>
-        <v>0</v>
+        <f>Module4!B6</f>
+        <v>1</v>
       </c>
       <c r="F11" s="91">
         <f>[1]Module2!C6</f>
@@ -3822,11 +3888,11 @@
       </c>
       <c r="D13" s="96">
         <f>SUM(D8:D12)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="96">
         <f t="shared" ref="E13:I13" si="0">SUM(E8:E12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="96">
         <f t="shared" si="0"/>
@@ -3872,7 +3938,7 @@
       </c>
       <c r="E16" s="102">
         <f>D13*100/(D13+E13)</f>
-        <v>100</v>
+        <v>92.307692307692307</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>46</v>
@@ -3909,21 +3975,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Number_x0020_Of_x0020_Viewer xmlns="cd6d2771-e08b-42a3-90f8-eca630337659">0</Number_x0020_Of_x0020_Viewer>
-    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Priority xmlns="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xsi:nil="true"/>
-    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1696f36ed93db054fc8f4d62be39c1ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xmlns:ns3="cd6d2771-e08b-42a3-90f8-eca630337659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bffc5b2d08ab4fb7daf98c77989d8342" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4297,6 +4348,21 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Number_x0020_Of_x0020_Viewer xmlns="cd6d2771-e08b-42a3-90f8-eca630337659">0</Number_x0020_Of_x0020_Viewer>
+    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Priority xmlns="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xsi:nil="true"/>
+    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
   <ds:schemaRefs>
@@ -4306,18 +4372,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3FE153F-83E4-41FE-A9C4-8D6AD58A9EE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="cd6d2771-e08b-42a3-90f8-eca630337659"/>
-    <ds:schemaRef ds:uri="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{898618FE-843B-48E6-B1F2-2AB76D41F459}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4334,4 +4388,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3FE153F-83E4-41FE-A9C4-8D6AD58A9EE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="cd6d2771-e08b-42a3-90f8-eca630337659"/>
+    <ds:schemaRef ds:uri="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/21130596-NguyenThanhTu/21130596 - NguyenThanhTu.xlsx
+++ b/21130596-NguyenThanhTu/21130596 - NguyenThanhTu.xlsx
@@ -8,29 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntt15\Downloads\AUTOTEST\group\21130596-NguyenThanhTu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4DA9EF-32E1-411E-BABC-6A19384EB637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F208C8DB-A95E-4203-8825-CBCCB517BCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="821" activeTab="3" xr2:uid="{67A9CA4E-B830-48E7-B9B2-CCBC9EF8E739}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="821" activeTab="4" xr2:uid="{67A9CA4E-B830-48E7-B9B2-CCBC9EF8E739}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="Test case List" sheetId="2" r:id="rId2"/>
     <sheet name="TestDesign" sheetId="6" r:id="rId3"/>
-    <sheet name="Module3" sheetId="9" r:id="rId4"/>
-    <sheet name="Module4" sheetId="8" r:id="rId5"/>
+    <sheet name="Module04" sheetId="9" r:id="rId4"/>
+    <sheet name="Module14" sheetId="8" r:id="rId5"/>
     <sheet name="Test Report" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Module3!$A$8:$H$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Module4!$A$8:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Module04!$A$8:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Module14!$A$8:$H$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestDesign!$A$1:$F$15</definedName>
     <definedName name="_Toc301930468" localSheetId="2">TestDesign!#REF!</definedName>
     <definedName name="_Toc301930478" localSheetId="2">TestDesign!#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">TestDesign!$A$1:$F$15</definedName>
+    <definedName name="Module04">'Test case List'!$D$9</definedName>
+    <definedName name="Module14">'Test case List'!$D$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">TestDesign!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -245,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="222">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -367,9 +369,6 @@
     <t>TEST REPORT</t>
   </si>
   <si>
-    <t>&lt;Date when this test report is created&gt;</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -409,76 +408,10 @@
     <t>Test Type</t>
   </si>
   <si>
-    <t>6.1 Logon &amp; Logout</t>
-  </si>
-  <si>
-    <t>Logon</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Check login with right User name (Permission 1) &amp; right Password</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
-    <t>Check login with right User name (Permission 2) &amp; right Password</t>
-  </si>
-  <si>
-    <t>Check login with right User name (Permission 3) &amp; right Password</t>
-  </si>
-  <si>
-    <t>Not success</t>
-  </si>
-  <si>
-    <t>Check login with right User name &amp; wrong Password</t>
-  </si>
-  <si>
-    <t>Check login with wrong User name &amp; right Password</t>
-  </si>
-  <si>
-    <t>password of another user</t>
-  </si>
-  <si>
-    <t>Check login with not exist User name</t>
-  </si>
-  <si>
-    <t>Forgot password</t>
-  </si>
-  <si>
-    <t>Click [Forgot Password] link - input right Username &amp; right Email</t>
-  </si>
-  <si>
-    <t>Click [Forgot Password] link - input right Username &amp; wrong Email</t>
-  </si>
-  <si>
-    <t>Click [Forgot Password] link - input wrong Username &amp; right Email</t>
-  </si>
-  <si>
-    <t>email of another user</t>
-  </si>
-  <si>
-    <t>Click [Forgot Password] link - input not exist Username</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Click [Log out] link</t>
-  </si>
-  <si>
     <t>GUI</t>
-  </si>
-  <si>
-    <t>Check layout of Logon screen</t>
-  </si>
-  <si>
-    <t>Check default value of controls in Logon screen</t>
-  </si>
-  <si>
-    <t>Check Max length of fields in Logon screen</t>
   </si>
   <si>
     <t>Passed</t>
@@ -694,19 +627,10 @@
     <t>TC14 - Movie Details Page</t>
   </si>
   <si>
-    <t>Module3</t>
-  </si>
-  <si>
-    <t>Module4</t>
-  </si>
-  <si>
     <t>Navigation Menu &amp; Links</t>
   </si>
   <si>
     <t>Movie Details Page</t>
-  </si>
-  <si>
-    <t>&lt;List modules included in this release&gt; ex: Release 1 includes 2 modules: Module3 and Module4</t>
   </si>
   <si>
     <t>1. Click on the Genre (e.g., Action).</t>
@@ -757,6 +681,276 @@
   </si>
   <si>
     <t>15/11/2031</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Click Action</t>
+  </si>
+  <si>
+    <t>Verify Home, Movies, TV Shows navigate correctly</t>
+  </si>
+  <si>
+    <t>Check correct routing</t>
+  </si>
+  <si>
+    <t>Active State</t>
+  </si>
+  <si>
+    <t>Verify active menu highlight</t>
+  </si>
+  <si>
+    <t>Highlight color consistency</t>
+  </si>
+  <si>
+    <t>Title Update</t>
+  </si>
+  <si>
+    <t>Page titles update on navigation</t>
+  </si>
+  <si>
+    <t>SEO title format</t>
+  </si>
+  <si>
+    <t>Footer Links</t>
+  </si>
+  <si>
+    <t>External Link</t>
+  </si>
+  <si>
+    <t>External links open new tab</t>
+  </si>
+  <si>
+    <t>Function/UI</t>
+  </si>
+  <si>
+    <t>Ensure target=_blank</t>
+  </si>
+  <si>
+    <t>Internal Link</t>
+  </si>
+  <si>
+    <t>Internal links open same tab</t>
+  </si>
+  <si>
+    <t>Check routing speed</t>
+  </si>
+  <si>
+    <t>Logo Action</t>
+  </si>
+  <si>
+    <t>Homepage Navigation</t>
+  </si>
+  <si>
+    <t>Clicking logo returns to homepage</t>
+  </si>
+  <si>
+    <t>Check logo clickable area</t>
+  </si>
+  <si>
+    <t>Breadcrumb</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Breadcrumb shows Home &gt; Category &gt; Item</t>
+  </si>
+  <si>
+    <t>Spacing &amp; divider styling</t>
+  </si>
+  <si>
+    <t>Clicking breadcrumb navigates correctly</t>
+  </si>
+  <si>
+    <t>SPA navigation</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>Page Change</t>
+  </si>
+  <si>
+    <t>Page 2, Next, Previous navigate correctly</t>
+  </si>
+  <si>
+    <t>URL param updates</t>
+  </si>
+  <si>
+    <t>Highlight</t>
+  </si>
+  <si>
+    <t>Current page highlight</t>
+  </si>
+  <si>
+    <t>Color &amp; font consistency</t>
+  </si>
+  <si>
+    <t>Error Handling</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>404 page appears for invalid URL</t>
+  </si>
+  <si>
+    <t>Message format check</t>
+  </si>
+  <si>
+    <t>Go to Homepage link works</t>
+  </si>
+  <si>
+    <t>CTA must stand out</t>
+  </si>
+  <si>
+    <t>Movie Details</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Title, Poster, Rating, Duration, Year displayed</t>
+  </si>
+  <si>
+    <t>GUI/Function</t>
+  </si>
+  <si>
+    <t>Alignment &amp; spacing</t>
+  </si>
+  <si>
+    <t>Synopsis</t>
+  </si>
+  <si>
+    <t>Synopsis visible</t>
+  </si>
+  <si>
+    <t>Typography consistency</t>
+  </si>
+  <si>
+    <t>Watch Now</t>
+  </si>
+  <si>
+    <t>Watch Now button visible</t>
+  </si>
+  <si>
+    <t>Contrast &amp; size</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>Playback</t>
+  </si>
+  <si>
+    <t>Trailer modal opens &amp; plays</t>
+  </si>
+  <si>
+    <t>Overlay opacity</t>
+  </si>
+  <si>
+    <t>Close Action</t>
+  </si>
+  <si>
+    <t>Close icon works</t>
+  </si>
+  <si>
+    <t>ESC accessibility</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Copy Link</t>
+  </si>
+  <si>
+    <t>Copy Link copies URL</t>
+  </si>
+  <si>
+    <t>Toast appears</t>
+  </si>
+  <si>
+    <t>Related Movies</t>
+  </si>
+  <si>
+    <t>6–12 related movies displayed</t>
+  </si>
+  <si>
+    <t>Card spacing</t>
+  </si>
+  <si>
+    <t>Clickable</t>
+  </si>
+  <si>
+    <t>Movie cards clickable</t>
+  </si>
+  <si>
+    <t>Hover animation</t>
+  </si>
+  <si>
+    <t>Watchlist</t>
+  </si>
+  <si>
+    <t>Add Action</t>
+  </si>
+  <si>
+    <t>Add to Watchlist updates state</t>
+  </si>
+  <si>
+    <t>Toast + icon change</t>
+  </si>
+  <si>
+    <t>Remove Action</t>
+  </si>
+  <si>
+    <t>Remove updates UI</t>
+  </si>
+  <si>
+    <t>Sync server &amp; UI</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Genre Page</t>
+  </si>
+  <si>
+    <t>Check URL slug &amp; filter accuracy</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>Cast Page</t>
+  </si>
+  <si>
+    <t>Clicking actor navigates to cast page</t>
+  </si>
+  <si>
+    <t>Clicking a genre navigates to genre page</t>
+  </si>
+  <si>
+    <t>Ensure cast name slug consistency</t>
+  </si>
+  <si>
+    <t>4. Navigation &amp; Links</t>
+  </si>
+  <si>
+    <t>14. Movie Details Page</t>
+  </si>
+  <si>
+    <t>&lt;List modules included in this release&gt; ex: Release 1 includes 2 modules: Module4 and Module14</t>
+  </si>
+  <si>
+    <t>Module14</t>
+  </si>
+  <si>
+    <t>Module04</t>
+  </si>
+  <si>
+    <t>Share menu does not appear when clicking Share icon.</t>
   </si>
 </sst>
 </file>
@@ -766,7 +960,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -949,12 +1143,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
@@ -964,6 +1152,28 @@
       <sz val="8"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="254"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="254"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="254"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -998,7 +1208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1344,21 +1554,6 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1402,44 +1597,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -1448,8 +1615,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1729,40 +1900,34 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1808,22 +1973,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1835,13 +1991,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="12">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="9" xr:uid="{95175637-6F8E-453E-819E-7F47F0A1EC46}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{AF438A5B-3922-4854-8B48-B0D38E22E64B}"/>
+    <cellStyle name="Normal 2 2" xfId="10" xr:uid="{384784EB-4A2D-420D-A52F-2C7E7F97E837}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{E8EEB79D-80F5-41B9-BED9-7B057E224A0B}"/>
+    <cellStyle name="Normal 3 2" xfId="11" xr:uid="{695C10A7-D052-40A5-8051-1D9E63B00561}"/>
     <cellStyle name="Normal 4" xfId="7" xr:uid="{0BA4C961-37AE-40D5-AE93-4BA31632E86D}"/>
+    <cellStyle name="Normal 5" xfId="8" xr:uid="{415FB577-F726-4E69-960C-EFE04F905D9E}"/>
     <cellStyle name="Normal_Functional Test Case v1.0" xfId="4" xr:uid="{6EE42572-6850-4F79-9F76-6B8CF8AE12B6}"/>
     <cellStyle name="Normal_Sheet1" xfId="5" xr:uid="{F0E74A8D-EEAD-457A-9468-DF3EED810A87}"/>
     <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="6" xr:uid="{4ABE8B43-397B-4370-AFCE-DD97B87AE376}"/>
@@ -2266,7 +2432,7 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G18" sqref="B11:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2283,14 +2449,14 @@
   <sheetData>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="5"/>
@@ -2301,11 +2467,11 @@
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="121" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
+      <c r="C4" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
       <c r="F4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2315,36 +2481,36 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
       <c r="F5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="124" t="str">
+      <c r="C6" s="122" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="123"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2390,7 +2556,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="23"/>
       <c r="G12" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1">
@@ -2450,6 +2616,9 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D16" location="Module2!B14" display="Module5" xr:uid="{70200F51-908C-48F3-A096-4E3163B19B36}"/>
+  </hyperlinks>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -2491,38 +2660,38 @@
       <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="121" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="121" t="str">
+      <c r="C4" s="128"/>
+      <c r="D4" s="119" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
     </row>
     <row r="5" spans="2:6" s="37" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="38"/>
@@ -2559,11 +2728,11 @@
       <c r="B9" s="47">
         <v>1</v>
       </c>
-      <c r="C9" s="116" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="120" t="s">
-        <v>137</v>
+      <c r="C9" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="118" t="s">
+        <v>220</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="50"/>
@@ -2573,10 +2742,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="120" t="s">
-        <v>138</v>
+        <v>115</v>
+      </c>
+      <c r="D10" s="118" t="s">
+        <v>219</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="50"/>
@@ -2669,8 +2838,8 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D9" location="Module3!A1" display="Module1" xr:uid="{4B40A108-7FDD-457C-853D-5717E4E33800}"/>
-    <hyperlink ref="D10" location="Module4!B14" display="Module2" xr:uid="{4F4CBE7A-9627-4000-9137-0C64D270FF74}"/>
+    <hyperlink ref="D9" location="Module04!A1" display="Module04" xr:uid="{4B40A108-7FDD-457C-853D-5717E4E33800}"/>
+    <hyperlink ref="D10" location="Module14!A1" display="Module14" xr:uid="{4F4CBE7A-9627-4000-9137-0C64D270FF74}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="1.1506944444444445" header="0.51180555555555562" footer="0.98402777777777783"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2682,233 +2851,483 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B1BDF9-0347-48BD-A798-2229416C2B2C}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="107" customWidth="1"/>
-    <col min="4" max="4" width="52.5" style="108" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="107" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="108" customWidth="1"/>
-    <col min="7" max="16384" width="7.875" style="106"/>
+    <col min="1" max="1" width="21.875" style="105" customWidth="1"/>
+    <col min="2" max="3" width="15.625" style="105" customWidth="1"/>
+    <col min="4" max="4" width="52.5" style="106" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="105" customWidth="1"/>
+    <col min="6" max="6" width="29.375" style="106" customWidth="1"/>
+    <col min="7" max="16384" width="7.875" style="104"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="103" customFormat="1" ht="25.5">
       <c r="A1" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="C1" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="D1" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="E1" s="66" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>53</v>
       </c>
       <c r="F1" s="66" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="131" t="s">
+    <row r="2" spans="1:6" ht="13.5">
+      <c r="A2" s="135" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.5">
+      <c r="A3" s="136"/>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="131" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="104"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="132"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="104"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="104" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="104"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="132"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="104"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="132"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="104"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="132"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="104"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="132"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="131" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="104"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="132"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="104" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="132"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="104"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="132"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="131" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="104"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="132"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="104"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="132"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="104" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="104" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="132"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="104"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="133"/>
-      <c r="B15" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="104" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="104"/>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.5">
+      <c r="A4" s="136"/>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5">
+      <c r="A5" s="136"/>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.5">
+      <c r="A6" s="136"/>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.5">
+      <c r="A7" s="136"/>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5">
+      <c r="A8" s="136"/>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.5">
+      <c r="A9" s="136"/>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5">
+      <c r="A10" s="136"/>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5">
+      <c r="A11" s="136"/>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5">
+      <c r="A12" s="136"/>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.5">
+      <c r="A13" s="136"/>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.5">
+      <c r="A14" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.5">
+      <c r="A15" s="136"/>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.5">
+      <c r="A16" s="136"/>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.5">
+      <c r="A17" s="136"/>
+      <c r="B17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5">
+      <c r="A18" s="136"/>
+      <c r="B18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.5">
+      <c r="A19" s="136"/>
+      <c r="B19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5">
+      <c r="A20" s="136"/>
+      <c r="B20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.5">
+      <c r="A21" s="136"/>
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.5">
+      <c r="A22" s="136"/>
+      <c r="B22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.5">
+      <c r="A23" s="136"/>
+      <c r="B23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.5">
+      <c r="A24" s="136"/>
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.5">
+      <c r="A25" s="136"/>
+      <c r="B25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>207</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F15" xr:uid="{98416A91-A0ED-4DA9-B892-E8B83DBB2D3B}"/>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C14"/>
+  <mergeCells count="2">
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A2:A13"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
@@ -2920,9 +3339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701BC9DA-44A1-46F3-93A4-894435B951B1}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2952,80 +3371,80 @@
       <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:10" s="62" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="134" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="B2" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
       <c r="I2" s="61"/>
       <c r="J2" s="62" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="62" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="134" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
+      <c r="B3" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
       <c r="I3" s="61"/>
       <c r="J3" s="62" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="62" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
+      <c r="B4" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
       <c r="I4" s="61"/>
       <c r="J4" s="62" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="62" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="112" t="s">
+      <c r="A5" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="112" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="135" t="s">
+      <c r="D5" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
       <c r="I5" s="64"/>
       <c r="J5" s="62" t="s">
         <v>29</v>
@@ -3036,31 +3455,31 @@
         <f>COUNTIF(F9:F993,"Passed")</f>
         <v>6</v>
       </c>
-      <c r="B6" s="114">
+      <c r="B6" s="112">
         <f>COUNTIF(F9:F993,"Failed")</f>
         <v>0</v>
       </c>
-      <c r="C6" s="114">
+      <c r="C6" s="112">
         <f>F6-E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="114">
+      <c r="D6" s="112">
         <f>COUNTIF(F$9:F$993,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="115">
+      <c r="E6" s="113">
         <f>COUNTIF(F$9:F$993,"Skipped")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="136">
+      <c r="F6" s="131">
         <f>COUNTA(A9:A993)</f>
         <v>6</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
       <c r="I6" s="64"/>
       <c r="J6" s="62" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="62" customFormat="1" ht="15" customHeight="1">
@@ -3112,141 +3531,141 @@
       <c r="I9" s="72"/>
     </row>
     <row r="10" spans="1:10" ht="51">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="116"/>
+      <c r="F10" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="117"/>
+      <c r="I10" s="73"/>
+    </row>
+    <row r="11" spans="1:10" ht="63.75">
+      <c r="A11" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="115" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="116"/>
+      <c r="F11" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="117"/>
+      <c r="I11" s="73"/>
+    </row>
+    <row r="12" spans="1:10" ht="38.25">
+      <c r="A12" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="116" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="116"/>
+      <c r="F12" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="117"/>
+      <c r="I12" s="73"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.25">
+      <c r="A13" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="116"/>
+      <c r="F13" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="115" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="117"/>
+      <c r="I13" s="73"/>
+    </row>
+    <row r="14" spans="1:10" ht="51">
+      <c r="A14" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="116"/>
+      <c r="F14" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="117"/>
+      <c r="I14" s="73"/>
+    </row>
+    <row r="15" spans="1:10" ht="38.25">
+      <c r="A15" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="117" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="117" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="118"/>
-      <c r="F10" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="73"/>
-    </row>
-    <row r="11" spans="1:10" ht="63.75">
-      <c r="A11" s="117" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="118" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="118"/>
-      <c r="F11" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="117" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="73"/>
-    </row>
-    <row r="12" spans="1:10" ht="38.25">
-      <c r="A12" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="117" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="117" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="119"/>
-      <c r="I12" s="73"/>
-    </row>
-    <row r="13" spans="1:10" ht="38.25">
-      <c r="A13" s="117" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="117" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="117" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="117" t="s">
-        <v>154</v>
-      </c>
-      <c r="H13" s="119"/>
-      <c r="I13" s="73"/>
-    </row>
-    <row r="14" spans="1:10" ht="51">
-      <c r="A14" s="117" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="117" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="117" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="118" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="118"/>
-      <c r="F14" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="H14" s="119"/>
-      <c r="I14" s="73"/>
-    </row>
-    <row r="15" spans="1:10" ht="38.25">
-      <c r="A15" s="117" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="117" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="118"/>
-      <c r="F15" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="117" t="s">
-        <v>156</v>
-      </c>
-      <c r="H15" s="119"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="117"/>
       <c r="I15" s="73"/>
     </row>
   </sheetData>
@@ -3257,7 +3676,7 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
   </mergeCells>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1 F7:F142" xr:uid="{3C3779D3-2137-43F1-8BC3-BF1168BA2FD2}">
       <formula1>$J$2:$J$6</formula1>
@@ -3278,9 +3697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4BDD20-D8D9-437C-873A-9127FDD68979}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10:G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3310,80 +3729,80 @@
       <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:10" s="62" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="134" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="B2" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
       <c r="I2" s="61"/>
       <c r="J2" s="62" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="62" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="134" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
+      <c r="B3" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
       <c r="I3" s="61"/>
       <c r="J3" s="62" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="62" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
+      <c r="B4" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
       <c r="I4" s="61"/>
       <c r="J4" s="62" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="62" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="112" t="s">
+      <c r="A5" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="112" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="135" t="s">
+      <c r="D5" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
       <c r="I5" s="64"/>
       <c r="J5" s="62" t="s">
         <v>29</v>
@@ -3394,31 +3813,31 @@
         <f>COUNTIF(F9:F992,"Passed")</f>
         <v>6</v>
       </c>
-      <c r="B6" s="114">
+      <c r="B6" s="112">
         <f>COUNTIF(F9:F992,"Failed")</f>
         <v>1</v>
       </c>
-      <c r="C6" s="114">
+      <c r="C6" s="112">
         <f>F6-E6-D6-B6-A6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="114">
+      <c r="D6" s="112">
         <f>COUNTIF(F$9:F$992,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="115">
+      <c r="E6" s="113">
         <f>COUNTIF(F$9:F$992,"Skipped")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="136">
+      <c r="F6" s="131">
         <f>COUNTA(A9:A992)</f>
         <v>7</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
       <c r="I6" s="64"/>
       <c r="J6" s="62" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="62" customFormat="1" ht="15" customHeight="1">
@@ -3470,163 +3889,168 @@
       <c r="I9" s="72"/>
     </row>
     <row r="10" spans="1:10" ht="51">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="116"/>
+      <c r="F10" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="117"/>
+      <c r="I10" s="73"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5">
+      <c r="A11" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="116"/>
+      <c r="F11" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="117"/>
+      <c r="I11" s="73"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.5">
+      <c r="A12" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="116"/>
+      <c r="F12" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="117"/>
+      <c r="I12" s="73"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.25">
+      <c r="A13" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="116"/>
+      <c r="F13" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="117"/>
+      <c r="I13" s="73"/>
+    </row>
+    <row r="14" spans="1:10" ht="38.25">
+      <c r="A14" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="116"/>
+      <c r="F14" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="117" t="s">
+        <v>221</v>
+      </c>
+      <c r="I14" s="73"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.5">
+      <c r="A15" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="116"/>
+      <c r="F15" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="117"/>
+    </row>
+    <row r="16" spans="1:10" ht="38.25">
+      <c r="A16" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="D16" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="117" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="118" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="118"/>
-      <c r="F10" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="73"/>
-    </row>
-    <row r="11" spans="1:10" ht="25.5">
-      <c r="A11" s="117" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="118" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="118"/>
-      <c r="F11" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="73"/>
-    </row>
-    <row r="12" spans="1:10" ht="25.5">
-      <c r="A12" s="117" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="117" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="118" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="117" t="s">
-        <v>147</v>
-      </c>
-      <c r="H12" s="119"/>
-      <c r="I12" s="73"/>
-    </row>
-    <row r="13" spans="1:10" ht="38.25">
-      <c r="A13" s="117" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="117" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="118" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="117" t="s">
-        <v>148</v>
-      </c>
-      <c r="H13" s="119"/>
-      <c r="I13" s="73"/>
-    </row>
-    <row r="14" spans="1:10" ht="38.25">
-      <c r="A14" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="117" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="118" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="118"/>
-      <c r="F14" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="H14" s="119"/>
-      <c r="I14" s="73"/>
-    </row>
-    <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="117" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="117" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="117" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="118" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="118"/>
-      <c r="F15" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="117" t="s">
-        <v>150</v>
-      </c>
-      <c r="H15" s="119"/>
-    </row>
-    <row r="16" spans="1:10" ht="38.25">
-      <c r="A16" s="117" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="117" t="s">
+      <c r="E16" s="116"/>
+      <c r="F16" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="117" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="118" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="118"/>
-      <c r="F16" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="117" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="119"/>
+      <c r="H16" s="117">
+        <f ca="1">A8:H16</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3636,7 +4060,7 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
   </mergeCells>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1 F7:F141" xr:uid="{5F6D4847-6D48-4EB5-9B5D-00EA46FC9FAA}">
       <formula1>$J$2:$J$6</formula1>
@@ -3658,7 +4082,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3674,15 +4098,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
       <c r="A2" s="75"/>
@@ -3698,14 +4122,14 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="121" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="137" t="s">
+      <c r="C3" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="119"/>
+      <c r="E3" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="137"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="78"/>
       <c r="H3" s="79"/>
     </row>
@@ -3713,14 +4137,14 @@
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="137" t="s">
+      <c r="D4" s="119"/>
+      <c r="E4" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="137"/>
+      <c r="F4" s="132"/>
       <c r="G4" s="78"/>
       <c r="H4" s="79"/>
     </row>
@@ -3728,33 +4152,33 @@
       <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="121" t="str">
+      <c r="C5" s="119" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="121"/>
-      <c r="E5" s="137" t="s">
+      <c r="D5" s="119"/>
+      <c r="E5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="137"/>
+      <c r="F5" s="132"/>
       <c r="G5" s="78"/>
       <c r="H5" s="81" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1">
       <c r="A6" s="75"/>
       <c r="B6" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="138" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
+        <v>40</v>
+      </c>
+      <c r="C6" s="133" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="75"/>
@@ -3780,7 +4204,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="86" t="s">
         <v>25</v>
@@ -3792,13 +4216,13 @@
         <v>29</v>
       </c>
       <c r="G9" s="87" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="H9" s="88" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I9" s="88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3807,15 +4231,15 @@
         <v>1</v>
       </c>
       <c r="C10" s="90" t="str">
-        <f>Module3!B2</f>
+        <f>Module04!B2</f>
         <v>TC04 - Navigation Menu &amp; Links</v>
       </c>
       <c r="D10" s="91">
-        <f>Module3!A6</f>
+        <f>Module04!A6</f>
         <v>6</v>
       </c>
       <c r="E10" s="91">
-        <f>Module3!B6</f>
+        <f>Module04!B6</f>
         <v>0</v>
       </c>
       <c r="F10" s="91">
@@ -3831,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="91">
-        <f>Module3!F6</f>
+        <f>Module04!F6</f>
         <v>6</v>
       </c>
     </row>
@@ -3841,15 +4265,15 @@
         <v>2</v>
       </c>
       <c r="C11" s="90" t="str">
-        <f>Module4!B2</f>
+        <f>Module14!B2</f>
         <v>TC14 - Movie Details Page</v>
       </c>
       <c r="D11" s="91">
-        <f>Module4!A6</f>
+        <f>Module14!A6</f>
         <v>6</v>
       </c>
       <c r="E11" s="91">
-        <f>Module4!B6</f>
+        <f>Module14!B6</f>
         <v>1</v>
       </c>
       <c r="F11" s="91">
@@ -3865,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="91">
-        <f>Module4!F6</f>
+        <f>Module14!F6</f>
         <v>7</v>
       </c>
     </row>
@@ -3884,7 +4308,7 @@
       <c r="A13" s="83"/>
       <c r="B13" s="94"/>
       <c r="C13" s="95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="96">
         <f>SUM(D8:D12)</f>
@@ -3921,27 +4345,27 @@
     </row>
     <row r="15" spans="1:9">
       <c r="C15" s="101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="102">
         <f>(D13+E13)*100/(I13-H13-G13)</f>
         <v>100</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:9">
       <c r="C16" s="101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="102">
         <f>D13*100/(D13+E13)</f>
         <v>92.307692307692307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="65"/>
     </row>
@@ -3975,6 +4399,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Number_x0020_Of_x0020_Viewer xmlns="cd6d2771-e08b-42a3-90f8-eca630337659">0</Number_x0020_Of_x0020_Viewer>
+    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Priority xmlns="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xsi:nil="true"/>
+    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1696f36ed93db054fc8f4d62be39c1ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xmlns:ns3="cd6d2771-e08b-42a3-90f8-eca630337659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bffc5b2d08ab4fb7daf98c77989d8342" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4348,21 +4787,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Number_x0020_Of_x0020_Viewer xmlns="cd6d2771-e08b-42a3-90f8-eca630337659">0</Number_x0020_Of_x0020_Viewer>
-    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Priority xmlns="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xsi:nil="true"/>
-    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
   <ds:schemaRefs>
@@ -4372,6 +4796,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3FE153F-83E4-41FE-A9C4-8D6AD58A9EE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="cd6d2771-e08b-42a3-90f8-eca630337659"/>
+    <ds:schemaRef ds:uri="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{898618FE-843B-48E6-B1F2-2AB76D41F459}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4388,16 +4824,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3FE153F-83E4-41FE-A9C4-8D6AD58A9EE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="cd6d2771-e08b-42a3-90f8-eca630337659"/>
-    <ds:schemaRef ds:uri="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/21130596-NguyenThanhTu/21130596 - NguyenThanhTu.xlsx
+++ b/21130596-NguyenThanhTu/21130596 - NguyenThanhTu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntt15\Downloads\AUTOTEST\group\21130596-NguyenThanhTu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F208C8DB-A95E-4203-8825-CBCCB517BCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD42CD16-F137-493C-8A58-C58B41B4002F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="821" activeTab="4" xr2:uid="{67A9CA4E-B830-48E7-B9B2-CCBC9EF8E739}"/>
   </bookViews>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="211">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -647,40 +647,7 @@
     <t>15/11/2025</t>
   </si>
   <si>
-    <t>15/11/2026</t>
-  </si>
-  <si>
-    <t>15/11/2027</t>
-  </si>
-  <si>
-    <t>15/11/2028</t>
-  </si>
-  <si>
-    <t>15/11/2029</t>
-  </si>
-  <si>
-    <t>15/11/2030</t>
-  </si>
-  <si>
     <t>14/11/2025</t>
-  </si>
-  <si>
-    <t>14/11/2026</t>
-  </si>
-  <si>
-    <t>14/11/2027</t>
-  </si>
-  <si>
-    <t>14/11/2028</t>
-  </si>
-  <si>
-    <t>14/11/2029</t>
-  </si>
-  <si>
-    <t>14/11/2030</t>
-  </si>
-  <si>
-    <t>15/11/2031</t>
   </si>
   <si>
     <t>Navigation</t>
@@ -1973,6 +1940,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1990,12 +1963,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2732,7 +2699,7 @@
         <v>114</v>
       </c>
       <c r="D9" s="118" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="50"/>
@@ -2745,7 +2712,7 @@
         <v>115</v>
       </c>
       <c r="D10" s="118" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="50"/>
@@ -2888,439 +2855,439 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5">
-      <c r="A2" s="135" t="s">
-        <v>216</v>
+      <c r="A2" s="130" t="s">
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
         <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5">
-      <c r="A3" s="136"/>
+      <c r="A3" s="129"/>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.5">
-      <c r="A4" s="136"/>
+      <c r="A4" s="129"/>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5">
-      <c r="A5" s="136"/>
+      <c r="A5" s="129"/>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.5">
-      <c r="A6" s="136"/>
+      <c r="A6" s="129"/>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
         <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5">
-      <c r="A7" s="136"/>
+      <c r="A7" s="129"/>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
         <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.5">
-      <c r="A8" s="136"/>
+      <c r="A8" s="129"/>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
         <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.5">
-      <c r="A9" s="136"/>
+      <c r="A9" s="129"/>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
         <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.5">
-      <c r="A10" s="136"/>
+      <c r="A10" s="129"/>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
         <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.5">
-      <c r="A11" s="136"/>
+      <c r="A11" s="129"/>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5">
-      <c r="A12" s="136"/>
+      <c r="A12" s="129"/>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.5">
-      <c r="A13" s="136"/>
+      <c r="A13" s="129"/>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.5">
-      <c r="A14" s="136" t="s">
-        <v>217</v>
+      <c r="A14" s="129" t="s">
+        <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.5">
-      <c r="A15" s="136"/>
+      <c r="A15" s="129"/>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
         <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.5">
-      <c r="A16" s="136"/>
+      <c r="A16" s="129"/>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E16" t="s">
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5">
-      <c r="A17" s="136"/>
+      <c r="A17" s="129"/>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E17" t="s">
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5">
-      <c r="A18" s="136"/>
+      <c r="A18" s="129"/>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.5">
-      <c r="A19" s="136"/>
+      <c r="A19" s="129"/>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E19" t="s">
         <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.5">
-      <c r="A20" s="136"/>
+      <c r="A20" s="129"/>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.5">
-      <c r="A21" s="136"/>
+      <c r="A21" s="129"/>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13.5">
-      <c r="A22" s="136"/>
+      <c r="A22" s="129"/>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5">
-      <c r="A23" s="136"/>
+      <c r="A23" s="129"/>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E23" t="s">
         <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13.5">
-      <c r="A24" s="136"/>
+      <c r="A24" s="129"/>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E24" t="s">
         <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="13.5">
-      <c r="A25" s="136"/>
+      <c r="A25" s="129"/>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E25" t="s">
         <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3308,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3374,15 +3341,15 @@
       <c r="A2" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
       <c r="I2" s="61"/>
       <c r="J2" s="62" t="s">
         <v>55</v>
@@ -3392,15 +3359,15 @@
       <c r="A3" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
       <c r="I3" s="61"/>
       <c r="J3" s="62" t="s">
         <v>56</v>
@@ -3410,15 +3377,15 @@
       <c r="A4" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
       <c r="I4" s="61"/>
       <c r="J4" s="62" t="s">
         <v>57</v>
@@ -3440,11 +3407,11 @@
       <c r="E5" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
       <c r="I5" s="64"/>
       <c r="J5" s="62" t="s">
         <v>29</v>
@@ -3471,12 +3438,12 @@
         <f>COUNTIF(F$9:F$993,"Skipped")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="131">
+      <c r="F6" s="133">
         <f>COUNTA(A9:A993)</f>
         <v>6</v>
       </c>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
       <c r="I6" s="64"/>
       <c r="J6" s="62" t="s">
         <v>58</v>
@@ -3548,7 +3515,7 @@
         <v>55</v>
       </c>
       <c r="G10" s="115" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H10" s="117"/>
       <c r="I10" s="73"/>
@@ -3571,7 +3538,7 @@
         <v>55</v>
       </c>
       <c r="G11" s="115" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H11" s="117"/>
       <c r="I11" s="73"/>
@@ -3594,7 +3561,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="115" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H12" s="117"/>
       <c r="I12" s="73"/>
@@ -3617,7 +3584,7 @@
         <v>55</v>
       </c>
       <c r="G13" s="115" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H13" s="117"/>
       <c r="I13" s="73"/>
@@ -3640,7 +3607,7 @@
         <v>55</v>
       </c>
       <c r="G14" s="115" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H14" s="117"/>
       <c r="I14" s="73"/>
@@ -3663,7 +3630,7 @@
         <v>55</v>
       </c>
       <c r="G15" s="115" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H15" s="117"/>
       <c r="I15" s="73"/>
@@ -3698,8 +3665,8 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3732,15 +3699,15 @@
       <c r="A2" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
       <c r="I2" s="61"/>
       <c r="J2" s="62" t="s">
         <v>55</v>
@@ -3750,15 +3717,15 @@
       <c r="A3" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
       <c r="I3" s="61"/>
       <c r="J3" s="62" t="s">
         <v>56</v>
@@ -3768,15 +3735,15 @@
       <c r="A4" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
       <c r="I4" s="61"/>
       <c r="J4" s="62" t="s">
         <v>57</v>
@@ -3798,11 +3765,11 @@
       <c r="E5" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
       <c r="I5" s="64"/>
       <c r="J5" s="62" t="s">
         <v>29</v>
@@ -3829,12 +3796,12 @@
         <f>COUNTIF(F$9:F$992,"Skipped")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="131">
+      <c r="F6" s="133">
         <f>COUNTA(A9:A992)</f>
         <v>7</v>
       </c>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
       <c r="I6" s="64"/>
       <c r="J6" s="62" t="s">
         <v>58</v>
@@ -3929,7 +3896,7 @@
         <v>55</v>
       </c>
       <c r="G11" s="115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H11" s="117"/>
       <c r="I11" s="73"/>
@@ -3952,7 +3919,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="115" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H12" s="117"/>
       <c r="I12" s="73"/>
@@ -3975,7 +3942,7 @@
         <v>55</v>
       </c>
       <c r="G13" s="115" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H13" s="117"/>
       <c r="I13" s="73"/>
@@ -3998,10 +3965,10 @@
         <v>56</v>
       </c>
       <c r="G14" s="115" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H14" s="117" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="I14" s="73"/>
     </row>
@@ -4023,7 +3990,7 @@
         <v>55</v>
       </c>
       <c r="G15" s="115" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H15" s="117"/>
     </row>
@@ -4045,7 +4012,7 @@
         <v>55</v>
       </c>
       <c r="G16" s="115" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H16" s="117">
         <f ca="1">A8:H16</f>
@@ -4098,15 +4065,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
       <c r="A2" s="75"/>
@@ -4126,10 +4093,10 @@
         <v>60</v>
       </c>
       <c r="D3" s="119"/>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="132"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="78"/>
       <c r="H3" s="79"/>
     </row>
@@ -4141,10 +4108,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="119"/>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="132"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="78"/>
       <c r="H4" s="79"/>
     </row>
@@ -4157,13 +4124,13 @@
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
       <c r="D5" s="119"/>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="F5" s="134"/>
       <c r="G5" s="78"/>
       <c r="H5" s="81" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1">
@@ -4171,14 +4138,14 @@
       <c r="B6" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="133" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
+      <c r="C6" s="135" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="75"/>
@@ -4399,21 +4366,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Number_x0020_Of_x0020_Viewer xmlns="cd6d2771-e08b-42a3-90f8-eca630337659">0</Number_x0020_Of_x0020_Viewer>
-    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Priority xmlns="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xsi:nil="true"/>
-    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1696f36ed93db054fc8f4d62be39c1ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xmlns:ns3="cd6d2771-e08b-42a3-90f8-eca630337659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bffc5b2d08ab4fb7daf98c77989d8342" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4787,6 +4739,21 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Number_x0020_Of_x0020_Viewer xmlns="cd6d2771-e08b-42a3-90f8-eca630337659">0</Number_x0020_Of_x0020_Viewer>
+    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Priority xmlns="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xsi:nil="true"/>
+    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
   <ds:schemaRefs>
@@ -4796,18 +4763,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3FE153F-83E4-41FE-A9C4-8D6AD58A9EE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="cd6d2771-e08b-42a3-90f8-eca630337659"/>
-    <ds:schemaRef ds:uri="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{898618FE-843B-48E6-B1F2-2AB76D41F459}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4824,4 +4779,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3FE153F-83E4-41FE-A9C4-8D6AD58A9EE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="cd6d2771-e08b-42a3-90f8-eca630337659"/>
+    <ds:schemaRef ds:uri="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>